--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +73,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -122,6 +144,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="login" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica"/>
+                  <a:ea typeface="Helvetica"/>
+                  <a:cs typeface="Helvetica"/>
+                </a:rPr>
+                <a:t>Login</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="login2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica"/>
+                  <a:ea typeface="Helvetica"/>
+                  <a:cs typeface="Helvetica"/>
+                </a:rPr>
+                <a:t>Login2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -401,10 +570,10 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="4" spans="2:5" ht="34" x14ac:dyDescent="0.4">
       <c r="E4" s="2" t="s">
@@ -412,7 +581,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
@@ -422,6 +590,61 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId3" name="login">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId4" name="login2">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -430,16 +653,19 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Please select a form</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>employee</t>
   </si>
@@ -45,7 +39,7 @@
     <t>Select your role</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>Please select a form:</t>
   </si>
 </sst>
 </file>
@@ -76,14 +70,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,19 +81,18 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="72"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,12 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -161,13 +144,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>812800</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>812800</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
@@ -223,27 +206,32 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="login2" hidden="1">
+            <xdr:cNvPr id="2049" name="edit" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
+                  <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -260,8 +248,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -280,7 +268,7 @@
                   <a:ea typeface="Helvetica"/>
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
-                <a:t>Login2</a:t>
+                <a:t>Edit</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -559,27 +547,23 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:5" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="D2" s="5" t="s">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="4" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
@@ -602,13 +586,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>812800</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>812800</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
@@ -618,21 +602,52 @@
           </mc:Choice>
           <mc:Fallback/>
         </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId4" name="login2">
+            <control shapeId="2049" r:id="rId3" name="edit">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
@@ -646,31 +661,4 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="form list" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="submission list" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$C$2:$D$12</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>employee</t>
   </si>
@@ -41,11 +42,17 @@
   <si>
     <t>Please select a form:</t>
   </si>
+  <si>
+    <t>Please select a submission:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,14 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +144,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
@@ -215,20 +229,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>812800</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>254000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="edit" hidden="1">
+            <xdr:cNvPr id="2049" name="logout" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
@@ -268,7 +282,79 @@
                   <a:ea typeface="Helvetica"/>
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
-                <a:t>Edit</a:t>
+                <a:t>Logout</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="logout" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica"/>
+                  <a:ea typeface="Helvetica"/>
+                  <a:cs typeface="Helvetica"/>
+                </a:rPr>
+                <a:t>Logout</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -547,7 +633,7 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,10 +644,10 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -635,20 +721,83 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="edit">
+            <control shapeId="2049" r:id="rId3" name="logout">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>812800</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>254000</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="logout">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="5120" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>employee</t>
   </si>
@@ -45,15 +45,30 @@
   <si>
     <t>Please select a submission:</t>
   </si>
+  <si>
+    <t>Smart HR System</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,9 +104,19 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="72"/>
-      <name val="Helvetica"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,17 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,16 +190,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>406400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -262,8 +295,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -301,13 +334,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -334,8 +367,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -630,32 +663,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="D2" s="4" t="s">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"employee, supervisor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -671,16 +714,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>812800</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>812800</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>406400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -707,7 +750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -751,30 +794,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -788,13 +847,13 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="submission list" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$C$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$C$3:$D$13</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Select your role</t>
-  </si>
-  <si>
-    <t>Please select a form:</t>
   </si>
   <si>
     <t>Please select a submission:</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Last Update</t>
+  </si>
+  <si>
+    <t>Please select a form below:</t>
   </si>
 </sst>
 </file>
@@ -146,18 +146,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,13 +192,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>406400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -264,13 +264,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>254000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -336,13 +336,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -663,42 +663,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"employee, supervisor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -716,13 +716,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>406400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -740,18 +740,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -770,13 +772,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>812800</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>254000</xdr:rowOff>
                   </to>
                 </anchor>
@@ -794,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,32 +810,32 @@
     <col min="4" max="4" width="25.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -849,13 +851,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>1</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>1</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$C$3:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$A$3:$E$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>employee</t>
   </si>
@@ -59,6 +60,9 @@
   </si>
   <si>
     <t>Please select a form below:</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -334,13 +338,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -666,7 +670,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +747,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,30 +800,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -829,13 +834,17 @@
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E3"/>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -849,13 +858,13 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -17,8 +17,7 @@
     <sheet name="submission list" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$C$3:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$D$3:$E$13</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,15 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>employee</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Select your role</t>
-  </si>
-  <si>
-    <t>Please select a submission:</t>
   </si>
   <si>
     <t>Smart HR System</t>
@@ -59,10 +52,13 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Please select a form below:</t>
+    <t>Please select a form:</t>
   </si>
   <si>
-    <t>State</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>employee</t>
   </si>
 </sst>
 </file>
@@ -72,16 +68,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,7 +97,21 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="36"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="24"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,25 +119,230 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B2B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E8DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B2B3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B2B3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B2B3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B2B3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B2B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B2B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B2B3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B2B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B2B3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B2B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B2B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B2B3"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -143,31 +351,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00B2B3"/>
+      <color rgb="FFC0E8DD"/>
+      <color rgb="FFFAFAEF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -194,16 +501,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>406400</xdr:rowOff>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -266,16 +573,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>673100</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -339,15 +646,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:colOff>431800</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -667,46 +974,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="34"/>
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="3">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>"employee, supervisor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -718,16 +1150,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>406400</xdr:rowOff>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -744,23 +1176,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="55" t="s">
+        <v>6</v>
       </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -774,16 +1330,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>812800</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>673100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -800,51 +1356,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="54" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E3"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -859,15 +1600,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:colOff>431800</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="6220" yWindow="4820" windowWidth="20380" windowHeight="10020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$D$3:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$B$3:$E$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -351,12 +352,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -369,9 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -396,8 +393,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -436,6 +431,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -454,14 +452,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,14 +641,14 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1168400</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -976,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,144 +984,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="60" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="56" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B2:H2"/>
@@ -1192,126 +1188,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="55" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1356,236 +1352,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="6.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="61" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="B3:F3"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1600,14 +1561,14 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1168400</xdr:colOff>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>165100</xdr:rowOff>
                   </to>
                 </anchor>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="4820" windowWidth="20380" windowHeight="10020" tabRatio="500"/>
+    <workbookView xWindow="37800" yWindow="3940" windowWidth="23420" windowHeight="10020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>employee</t>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -1122,15 +1122,14 @@
       <c r="I12" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"employee, supervisor"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:F6">
+      <formula1>"Employee, Supervisor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="3940" windowWidth="23420" windowHeight="10020" tabRatio="500"/>
+    <workbookView xWindow="8040" yWindow="1900" windowWidth="23460" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="form list" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="submission list" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
@@ -509,7 +509,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="login" hidden="1">
+            <xdr:cNvPr id="1026" name="enter" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
@@ -549,7 +549,7 @@
                   <a:ea typeface="Helvetica"/>
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
-                <a:t>Login</a:t>
+                <a:t>Enter</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -581,7 +581,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="logout" hidden="1">
+            <xdr:cNvPr id="2049" name="leave" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
@@ -621,7 +621,7 @@
                   <a:ea typeface="Helvetica"/>
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
-                <a:t>Logout</a:t>
+                <a:t>Leave</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -653,7 +653,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="logout" hidden="1">
+            <xdr:cNvPr id="3073" name="leave" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
@@ -693,7 +693,7 @@
                   <a:ea typeface="Helvetica"/>
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
-                <a:t>Logout</a:t>
+                <a:t>Leave</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1141,7 +1141,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId3" name="login">
+            <control shapeId="1026" r:id="rId3" name="enter">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1321,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="logout">
+            <control shapeId="2049" r:id="rId3" name="leave">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1555,7 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="logout">
+            <control shapeId="3073" r:id="rId3" name="leave">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1900" windowWidth="23460" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
-    <sheet name="form list" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="submission list" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="form list" sheetId="1" r:id="rId2"/>
+    <sheet name="submission list" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!$D$3:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$B$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$C$5:$F$5</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Select your role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Smart HR System</t>
   </si>
@@ -59,6 +56,15 @@
     <t>Status</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Select your role:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Employee</t>
   </si>
 </sst>
@@ -79,14 +85,6 @@
     </font>
     <font>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -142,34 +140,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="0"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
     </font>
   </fonts>
@@ -205,49 +210,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00B2B3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF00B2B3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF00B2B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF00B2B3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF00B2B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF00B2B3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF00B2B3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF00B2B3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -272,69 +240,18 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF00B2B3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF00B2B3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00B2B3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF00B2B3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00B2B3"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF00B2B3"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF00B2B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF00B2B3"/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF00B2B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF00B2B3"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -342,8 +259,52 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF00B2B3"/>
+        <color rgb="FFC0E8DD"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0E8DD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0E8DD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0E8DD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0E8DD"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -357,105 +318,115 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,8 +436,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFC0E8DD"/>
       <color rgb="FF00B2B3"/>
-      <color rgb="FFC0E8DD"/>
       <color rgb="FFFAFAEF"/>
     </mruColors>
   </colors>
@@ -496,16 +467,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>368300</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>139700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -568,16 +539,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>673100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>546100</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -641,15 +612,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:colOff>1231900</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1168400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1371600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -969,166 +940,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30"/>
-      <c r="B2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="59" t="s">
+    <row r="1" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="55" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="12"/>
+      <c r="C6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>"Employee, Supervisor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1145,16 +1144,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>368300</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>139700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1171,147 +1170,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="51" t="s">
-        <v>6</v>
+    <row r="1" spans="2:10" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
+        <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="46"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -1325,16 +1344,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>673100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>546100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1351,201 +1370,207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="62" t="s">
+    <row r="1" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="G5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="B3:F3"/>
+  <autoFilter ref="C5:G5"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1560,15 +1585,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:colOff>1231900</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1168400</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>1371600</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>101600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -403,6 +403,15 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,15 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,16 +539,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>254000</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>279400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>546100</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>292100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -942,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
@@ -974,16 +974,16 @@
     <row r="2" spans="1:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="22"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,9 +1006,9 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1027,15 +1027,15 @@
     </row>
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="24"/>
       <c r="I6" s="4"/>
       <c r="J6" s="12"/>
@@ -1170,25 +1170,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -1197,9 +1195,8 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
         <v>5</v>
@@ -1210,9 +1207,8 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -1221,9 +1217,8 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="50" t="s">
         <v>9</v>
@@ -1233,10 +1228,9 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="54"/>
       <c r="D6" s="47"/>
@@ -1244,54 +1238,49 @@
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="C7" s="62"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="61"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
       <c r="C11" s="45"/>
       <c r="D11" s="12"/>
@@ -1300,9 +1289,8 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="45"/>
       <c r="D12" s="12"/>
@@ -1311,9 +1299,8 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="45"/>
       <c r="D13" s="12"/>
@@ -1322,12 +1309,11 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" s="46"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="46"/>
     </row>
   </sheetData>
@@ -1344,16 +1330,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>254000</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>279400</xdr:rowOff>
+                  </from>
+                  <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>914400</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>546100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>292100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1400,12 +1386,12 @@
     </row>
     <row r="3" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="26"/>
       <c r="H3" s="18"/>
     </row>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -1120,6 +1120,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <mergeCells count="4">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="F4:H4"/>
@@ -1127,7 +1128,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:G6">
       <formula1>"Employee, Supervisor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Smart HR System</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>Please select a form in WAITING to review:</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,138 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0E8DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0E8DD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0E8DD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0E8DD"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -675,6 +809,20 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C5:G15" totalsRowShown="0">
+  <autoFilter ref="C5:G15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" name="Form" dataDxfId="2"/>
+    <tableColumn id="3" name="Owner" dataDxfId="1"/>
+    <tableColumn id="4" name="Status"/>
+    <tableColumn id="5" name="Last Update" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1359,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1536,7 @@
     <row r="3" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -1555,11 +1703,11 @@
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="C5:G5"/>
   <mergeCells count="1">
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1592,5 +1740,8 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'form list'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$C$5:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'submission list'!$C$6:$F$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,22 +38,7 @@
     <t>Smart HR System</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Last Update</t>
-  </si>
-  <si>
     <t>Please select a form:</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -70,6 +55,21 @@
   <si>
     <t>Please select a form in WAITING to review:</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,29 +115,6 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,73 +227,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC0E8DD"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0E8DD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0E8DD"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC0E8DD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0E8DD"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,66 +259,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,30 +291,54 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -454,9 +357,32 @@
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFC0E8DD"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -478,23 +404,11 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFC0E8DD"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -514,23 +428,11 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFC0E8DD"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -550,21 +452,34 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFC0E8DD"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -674,15 +589,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>254000</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>292100</xdr:rowOff>
+          <xdr:colOff>736600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -745,16 +660,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:colOff>1549400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -812,16 +727,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C5:G15" totalsRowShown="0">
-  <autoFilter ref="C5:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C5:G7" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="C5:G7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" name="Form" dataDxfId="2"/>
-    <tableColumn id="3" name="Owner" dataDxfId="1"/>
-    <tableColumn id="4" name="Status"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Form" dataDxfId="3"/>
+    <tableColumn id="3" name="Owner" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="1"/>
     <tableColumn id="5" name="Last Update" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1090,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1023,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
+      <c r="A1" s="17"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1120,18 +1035,18 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="22"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1146,7 +1061,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,9 +1069,9 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1175,16 +1090,16 @@
     </row>
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
-      <c r="C6" s="60" t="s">
-        <v>8</v>
+      <c r="C6" s="44" t="s">
+        <v>3</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61" t="s">
-        <v>10</v>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
+        <v>5</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="4"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1250,21 +1165,21 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1336,32 +1251,32 @@
   <sheetData>
     <row r="1" spans="2:9" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44" t="s">
-        <v>5</v>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1369,69 +1284,69 @@
     </row>
     <row r="5" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="50" t="s">
-        <v>9</v>
+      <c r="C5" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1441,7 +1356,7 @@
     </row>
     <row r="12" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="45"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1451,7 +1366,7 @@
     </row>
     <row r="13" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
-      <c r="C13" s="45"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1460,10 +1375,10 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="46"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="46"/>
+      <c r="C15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1480,15 +1395,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>254000</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>914400</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>292100</xdr:rowOff>
+                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1505,201 +1420,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16"/>
+      <c r="B2"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="12"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
     </row>
     <row r="11" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
@@ -1719,16 +1538,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1231900</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:colOff>1549400</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -75,10 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,11 +155,32 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF595959"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +209,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0E8DD"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,9 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -242,15 +270,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -269,31 +291,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -303,20 +301,53 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,13 +363,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -355,13 +386,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -385,6 +417,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -409,6 +442,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -433,6 +467,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -457,6 +492,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -480,14 +516,140 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFAFAEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0E8DD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B2B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFAEF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="Table Style 2" pivot="0" count="5">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFAFAEF"/>
       <color rgb="FFC0E8DD"/>
       <color rgb="FF00B2B3"/>
-      <color rgb="FFFAFAEF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -588,23 +750,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>5245100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>6819900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="leave" hidden="1">
+            <xdr:cNvPr id="2054" name="leave" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
+                  <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -660,14 +822,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1231900</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1549400</xdr:colOff>
+          <xdr:colOff>1320800</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -727,6 +889,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table64" displayName="Table64" ref="C5:C12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C5:C12"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C5:G7" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="C5:G7"/>
   <tableColumns count="5">
@@ -736,7 +908,7 @@
     <tableColumn id="4" name="Status" dataDxfId="1"/>
     <tableColumn id="5" name="Last Update" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1005,13 +1177,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -1023,158 +1195,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="18"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="13"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="11:11" x14ac:dyDescent="0.2">
@@ -1234,152 +1406,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="91.6640625" customWidth="1"/>
     <col min="4" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+    <row r="1" spans="2:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="2:9" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="32"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="12"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="12"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
-    </row>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1390,20 +1585,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="leave">
+            <control shapeId="2054" r:id="rId3" name="leave">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>5245100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>6819900</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1415,15 +1610,18 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,85 +1639,110 @@
   <sheetData>
     <row r="1" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="10"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <mergeCells count="1">
@@ -1538,14 +1761,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1231900</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>1549400</xdr:colOff>
+                    <xdr:colOff>1320800</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </to>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -890,7 +890,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table64" displayName="Table64" ref="C5:C12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="C5:C12"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
   </tableColumns>
@@ -1409,7 +1408,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/WEB-INF/book/workflow.xlsx
+++ b/src/main/webapp/WEB-INF/book/workflow.xlsx
@@ -292,18 +292,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,17 +325,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,7 +369,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -393,7 +393,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -417,7 +417,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -442,7 +442,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -467,7 +467,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -492,7 +492,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -516,7 +516,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -638,11 +641,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="Table Style 2" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -889,16 +892,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table64" displayName="Table64" ref="C5:C12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table64" displayName="Table64" ref="C5:C12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="1">
-    <tableColumn id="1" name="Name" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C5:G7" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C5:G7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="C5:G7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
@@ -1408,7 +1411,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,53 +1428,53 @@
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:9" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -1479,9 +1482,9 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -1489,9 +1492,9 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -1499,9 +1502,9 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -1509,9 +1512,9 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -1519,9 +1522,9 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1529,9 +1532,9 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1539,9 +1542,9 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1620,7 +1623,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,19 +1671,19 @@
     </row>
     <row r="5" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="14"/>
@@ -1709,12 +1712,12 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="24"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
